--- a/Copy of Personal_Level_screening_for_COPD(1).xlsx
+++ b/Copy of Personal_Level_screening_for_COPD(1).xlsx
@@ -34194,11 +34194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34382,7 +34381,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -34488,7 +34487,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -34532,7 +34531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -34585,7 +34584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -34685,7 +34684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -34738,7 +34737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -34791,7 +34790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -34844,7 +34843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -34897,7 +34896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>88</v>
       </c>
@@ -35056,7 +35055,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>97</v>
       </c>
@@ -35215,7 +35214,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>117</v>
       </c>
@@ -35321,7 +35320,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>125</v>
       </c>
@@ -35374,7 +35373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>129</v>
       </c>
@@ -35480,7 +35479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
@@ -35533,7 +35532,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>142</v>
       </c>
@@ -35586,7 +35585,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>144</v>
       </c>
@@ -35692,7 +35691,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>153</v>
       </c>
@@ -35745,7 +35744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>156</v>
       </c>
@@ -35798,7 +35797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
@@ -35851,7 +35850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>160</v>
       </c>
@@ -36063,7 +36062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>173</v>
       </c>
@@ -36116,7 +36115,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>176</v>
       </c>
@@ -36643,7 +36642,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>206</v>
       </c>
@@ -36696,7 +36695,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>210</v>
       </c>
@@ -36855,7 +36854,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>219</v>
       </c>
@@ -36908,7 +36907,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>222</v>
       </c>
@@ -36961,7 +36960,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>225</v>
       </c>
@@ -37014,7 +37013,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>228</v>
       </c>
@@ -37173,7 +37172,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>238</v>
       </c>
@@ -37226,7 +37225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>241</v>
       </c>
@@ -37332,7 +37331,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>248</v>
       </c>
@@ -37491,7 +37490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>256</v>
       </c>
@@ -37544,7 +37543,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>260</v>
       </c>
@@ -37597,7 +37596,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>262</v>
       </c>
@@ -37703,7 +37702,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>267</v>
       </c>
@@ -37756,7 +37755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>268</v>
       </c>
@@ -37809,7 +37808,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>270</v>
       </c>
@@ -37862,7 +37861,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>272</v>
       </c>
@@ -37968,7 +37967,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>277</v>
       </c>
@@ -38021,7 +38020,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>278</v>
       </c>
@@ -38127,7 +38126,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>281</v>
       </c>
@@ -38392,7 +38391,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>293</v>
       </c>
@@ -38498,7 +38497,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>296</v>
       </c>
@@ -38657,7 +38656,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>303</v>
       </c>
@@ -38710,7 +38709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>305</v>
       </c>
@@ -38816,7 +38815,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>309</v>
       </c>
@@ -39028,7 +39027,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>313</v>
       </c>
@@ -39081,7 +39080,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>315</v>
       </c>
@@ -39134,7 +39133,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>316</v>
       </c>
@@ -39187,7 +39186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>318</v>
       </c>
@@ -39240,7 +39239,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>319</v>
       </c>
@@ -39293,7 +39292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>320</v>
       </c>
@@ -39346,7 +39345,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>322</v>
       </c>
@@ -39452,7 +39451,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>325</v>
       </c>
@@ -39505,7 +39504,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>326</v>
       </c>
@@ -39664,7 +39663,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>329</v>
       </c>
@@ -39823,7 +39822,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>332</v>
       </c>
@@ -39876,7 +39875,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>333</v>
       </c>
@@ -39929,7 +39928,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>336</v>
       </c>
@@ -39982,7 +39981,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>337</v>
       </c>
@@ -40141,7 +40140,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>343</v>
       </c>
@@ -40247,7 +40246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>345</v>
       </c>
@@ -40300,7 +40299,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>347</v>
       </c>
@@ -40459,7 +40458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>350</v>
       </c>
@@ -40565,7 +40564,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>352</v>
       </c>
@@ -40724,7 +40723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>355</v>
       </c>
@@ -40936,7 +40935,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>359</v>
       </c>
@@ -41095,7 +41094,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>364</v>
       </c>
@@ -41148,7 +41147,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>366</v>
       </c>
@@ -41201,7 +41200,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>368</v>
       </c>
@@ -41254,7 +41253,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>370</v>
       </c>
@@ -41307,7 +41306,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>373</v>
       </c>
@@ -41466,7 +41465,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>377</v>
       </c>
@@ -41519,7 +41518,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>379</v>
       </c>
@@ -41678,7 +41677,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>385</v>
       </c>
@@ -41731,7 +41730,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>386</v>
       </c>
@@ -41784,7 +41783,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>387</v>
       </c>
@@ -41943,7 +41942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>390</v>
       </c>
@@ -42102,7 +42101,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>395</v>
       </c>
@@ -42155,7 +42154,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>396</v>
       </c>
@@ -42261,7 +42260,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>398</v>
       </c>
@@ -42314,7 +42313,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>399</v>
       </c>
@@ -42420,7 +42419,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>402</v>
       </c>
@@ -42579,7 +42578,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>405</v>
       </c>
@@ -42632,7 +42631,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>406</v>
       </c>
@@ -42685,7 +42684,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>407</v>
       </c>
@@ -42791,7 +42790,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>411</v>
       </c>
@@ -43003,7 +43002,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>423</v>
       </c>
@@ -43109,7 +43108,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>427</v>
       </c>
@@ -43162,7 +43161,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>428</v>
       </c>
@@ -43268,7 +43267,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>431</v>
       </c>
@@ -43321,7 +43320,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>432</v>
       </c>
@@ -43374,7 +43373,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>433</v>
       </c>
@@ -43427,7 +43426,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>434</v>
       </c>
@@ -43480,7 +43479,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>435</v>
       </c>
@@ -43533,7 +43532,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>436</v>
       </c>
@@ -43586,7 +43585,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>437</v>
       </c>
@@ -43639,7 +43638,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>438</v>
       </c>
@@ -43745,7 +43744,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>442</v>
       </c>
@@ -43798,7 +43797,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>443</v>
       </c>
@@ -43904,7 +43903,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>446</v>
       </c>
@@ -43957,7 +43956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>447</v>
       </c>
@@ -44010,7 +44009,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>449</v>
       </c>
@@ -44063,7 +44062,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>451</v>
       </c>
@@ -44116,7 +44115,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>452</v>
       </c>
@@ -44169,7 +44168,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>455</v>
       </c>
@@ -44222,7 +44221,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>459</v>
       </c>
@@ -44275,7 +44274,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>463</v>
       </c>
@@ -44328,7 +44327,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>466</v>
       </c>
@@ -44381,7 +44380,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>468</v>
       </c>
@@ -44434,7 +44433,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>471</v>
       </c>
@@ -44487,7 +44486,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>474</v>
       </c>
@@ -44540,7 +44539,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>476</v>
       </c>
@@ -44593,7 +44592,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>481</v>
       </c>
@@ -44646,7 +44645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>483</v>
       </c>
@@ -44699,7 +44698,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>486</v>
       </c>
@@ -44752,7 +44751,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>488</v>
       </c>
@@ -44805,7 +44804,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>492</v>
       </c>
@@ -44858,7 +44857,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>496</v>
       </c>
@@ -44911,7 +44910,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>499</v>
       </c>
@@ -44964,7 +44963,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>503</v>
       </c>
@@ -45017,7 +45016,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>507</v>
       </c>
@@ -45070,7 +45069,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>512</v>
       </c>
@@ -45123,7 +45122,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>515</v>
       </c>
@@ -45176,7 +45175,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>519</v>
       </c>
@@ -45229,7 +45228,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>523</v>
       </c>
@@ -45282,7 +45281,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>526</v>
       </c>
@@ -45335,7 +45334,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>529</v>
       </c>
@@ -45388,7 +45387,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>533</v>
       </c>
@@ -45441,7 +45440,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>537</v>
       </c>
@@ -45494,7 +45493,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>541</v>
       </c>
@@ -45547,7 +45546,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>544</v>
       </c>
@@ -45653,7 +45652,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>552</v>
       </c>
@@ -45706,7 +45705,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>556</v>
       </c>
@@ -45759,7 +45758,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>558</v>
       </c>
@@ -45812,7 +45811,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>561</v>
       </c>
@@ -45865,7 +45864,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>563</v>
       </c>
@@ -45918,7 +45917,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>567</v>
       </c>
@@ -45971,7 +45970,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>571</v>
       </c>
@@ -46024,7 +46023,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>575</v>
       </c>
@@ -46077,7 +46076,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>577</v>
       </c>
@@ -46130,7 +46129,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>581</v>
       </c>
@@ -46183,7 +46182,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>584</v>
       </c>
@@ -46236,7 +46235,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>589</v>
       </c>
@@ -46289,7 +46288,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>591</v>
       </c>
@@ -46342,7 +46341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>594</v>
       </c>
@@ -46395,7 +46394,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>597</v>
       </c>
@@ -46448,7 +46447,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>601</v>
       </c>
@@ -46501,7 +46500,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>604</v>
       </c>
@@ -46554,7 +46553,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>607</v>
       </c>
@@ -46607,7 +46606,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>610</v>
       </c>
@@ -46660,7 +46659,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>612</v>
       </c>
@@ -46713,7 +46712,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>614</v>
       </c>
@@ -46766,7 +46765,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>616</v>
       </c>
@@ -46819,7 +46818,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>619</v>
       </c>
@@ -46872,7 +46871,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>621</v>
       </c>
@@ -46925,7 +46924,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>622</v>
       </c>
@@ -46978,7 +46977,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>624</v>
       </c>
@@ -47031,7 +47030,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>626</v>
       </c>
@@ -47084,7 +47083,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>627</v>
       </c>
@@ -47137,7 +47136,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>630</v>
       </c>
@@ -47190,7 +47189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>631</v>
       </c>
@@ -47243,7 +47242,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>632</v>
       </c>
@@ -47296,7 +47295,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>633</v>
       </c>
@@ -47349,7 +47348,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>634</v>
       </c>
@@ -47402,7 +47401,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>636</v>
       </c>
@@ -47455,7 +47454,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>638</v>
       </c>
@@ -47508,7 +47507,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>639</v>
       </c>
@@ -47562,14 +47561,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O2:O252">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="M.Pharm"/>
-        <filter val="Postgraduate"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
